--- a/test/e2e-generate/from-existing/out.xlsx
+++ b/test/e2e-generate/from-existing/out.xlsx
@@ -385,6 +385,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/test/e2e-generate/from-existing/out.xlsx
+++ b/test/e2e-generate/from-existing/out.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12795"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/test/e2e-generate/from-existing/out.xlsx
+++ b/test/e2e-generate/from-existing/out.xlsx
@@ -386,7 +386,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
